--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyan\olympics-economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C49EDE08-CA82-45BB-802B-6E6C4EA43B78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFC470B-B710-487B-AA04-1D7401685B05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{196789AD-4594-4D19-8163-442B4E21CBCF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Rio de Janeiro</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Los Angeles</t>
   </si>
   <si>
-    <t>Moscow</t>
-  </si>
-  <si>
     <t>Montreal</t>
   </si>
   <si>
@@ -72,31 +69,7 @@
     <t>Mexico City</t>
   </si>
   <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>Rome</t>
-  </si>
-  <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Antwerp</t>
-  </si>
-  <si>
-    <t>Stockholm</t>
-  </si>
-  <si>
-    <t>St. Louis</t>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -448,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87200C4-C630-4384-ACD9-DDFDE1875CA6}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,7 +432,7 @@
     <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>-7</v>
       </c>
@@ -505,140 +478,73 @@
       <c r="P1">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyan\olympics-economy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFC470B-B710-487B-AA04-1D7401685B05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D79D87B-6AE9-4723-9B52-E10B8757EB2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{196789AD-4594-4D19-8163-442B4E21CBCF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GDP growth" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Rio de Janeiro</t>
   </si>
@@ -63,13 +63,7 @@
     <t>Montreal</t>
   </si>
   <si>
-    <t>Munich</t>
-  </si>
-  <si>
     <t>Mexico City</t>
-  </si>
-  <si>
-    <t>average</t>
   </si>
 </sst>
 </file>
@@ -421,18 +415,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87200C4-C630-4384-ACD9-DDFDE1875CA6}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>-7</v>
       </c>
@@ -478,73 +472,537 @@
       <c r="P1">
         <v>7</v>
       </c>
-      <c r="R1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>-0.126</v>
+      </c>
+      <c r="C2">
+        <v>7.5279999999999996</v>
+      </c>
+      <c r="D2">
+        <v>3.9740000000000002</v>
+      </c>
+      <c r="E2">
+        <v>1.921</v>
+      </c>
+      <c r="F2">
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.504</v>
+      </c>
+      <c r="H2">
+        <v>-3.5459999999999998</v>
+      </c>
+      <c r="I2">
+        <v>-3.3050000000000002</v>
+      </c>
+      <c r="J2">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="K2">
+        <v>1.1180000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>3.149</v>
+      </c>
+      <c r="C3">
+        <v>2.548</v>
+      </c>
+      <c r="D3">
+        <v>2.5459999999999998</v>
+      </c>
+      <c r="E3">
+        <v>-0.34599999999999997</v>
+      </c>
+      <c r="F3">
+        <v>-4.2469999999999999</v>
+      </c>
+      <c r="G3">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="H3">
+        <v>1.645</v>
+      </c>
+      <c r="I3">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="J3">
+        <v>2.0459999999999998</v>
+      </c>
+      <c r="K3">
+        <v>2.948</v>
+      </c>
+      <c r="L3">
+        <v>2.3490000000000002</v>
+      </c>
+      <c r="M3">
+        <v>1.7889999999999999</v>
+      </c>
+      <c r="N3">
+        <v>1.823</v>
+      </c>
+      <c r="O3">
+        <v>1.3979999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>8.34</v>
+      </c>
+      <c r="C4">
+        <v>9.1310000000000002</v>
+      </c>
+      <c r="D4">
+        <v>10.036</v>
+      </c>
+      <c r="E4">
+        <v>10.111000000000001</v>
+      </c>
+      <c r="F4">
+        <v>11.396000000000001</v>
+      </c>
+      <c r="G4">
+        <v>12.718999999999999</v>
+      </c>
+      <c r="H4">
+        <v>14.231</v>
+      </c>
+      <c r="I4">
+        <v>9.6539999999999999</v>
+      </c>
+      <c r="J4">
+        <v>9.4</v>
+      </c>
+      <c r="K4">
+        <v>10.635999999999999</v>
+      </c>
+      <c r="L4">
+        <v>9.5510000000000002</v>
+      </c>
+      <c r="M4">
+        <v>7.86</v>
+      </c>
+      <c r="N4">
+        <v>7.7690000000000001</v>
+      </c>
+      <c r="O4">
+        <v>7.3</v>
+      </c>
+      <c r="P4">
+        <v>6.9050000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>4.484</v>
+      </c>
+      <c r="C5">
+        <v>3.895</v>
+      </c>
+      <c r="D5">
+        <v>3.073</v>
+      </c>
+      <c r="E5">
+        <v>3.92</v>
+      </c>
+      <c r="F5">
+        <v>4.1319999999999997</v>
+      </c>
+      <c r="G5">
+        <v>3.923</v>
+      </c>
+      <c r="H5">
+        <v>5.7949999999999999</v>
+      </c>
+      <c r="I5">
+        <v>5.0609999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="K5">
+        <v>5.6520000000000001</v>
+      </c>
+      <c r="L5">
+        <v>3.274</v>
+      </c>
+      <c r="M5">
+        <v>-0.33500000000000002</v>
+      </c>
+      <c r="N5">
+        <v>-4.3010000000000002</v>
+      </c>
+      <c r="O5">
+        <v>-5.4790000000000001</v>
+      </c>
+      <c r="P5">
+        <v>-9.1319999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>4.0289999999999999</v>
+      </c>
+      <c r="C6">
+        <v>3.9809999999999999</v>
+      </c>
+      <c r="D6">
+        <v>3.8340000000000001</v>
+      </c>
+      <c r="E6">
+        <v>3.879</v>
+      </c>
+      <c r="F6">
+        <v>3.9660000000000002</v>
+      </c>
+      <c r="G6">
+        <v>4.577</v>
+      </c>
+      <c r="H6">
+        <v>5.0739999999999998</v>
+      </c>
+      <c r="I6">
+        <v>3.9329999999999998</v>
+      </c>
+      <c r="J6">
+        <v>1.931</v>
+      </c>
+      <c r="K6">
+        <v>4.0010000000000003</v>
+      </c>
+      <c r="L6">
+        <v>2.9860000000000002</v>
+      </c>
+      <c r="M6">
+        <v>4.056</v>
+      </c>
+      <c r="N6">
+        <v>3.2040000000000002</v>
+      </c>
+      <c r="O6">
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="P6">
+        <v>3.8439999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>3.673</v>
+      </c>
+      <c r="C7">
+        <v>1.8859999999999999</v>
+      </c>
+      <c r="D7">
+        <v>-0.108</v>
+      </c>
+      <c r="E7">
+        <v>3.5219999999999998</v>
+      </c>
+      <c r="F7">
+        <v>2.7530000000000001</v>
+      </c>
+      <c r="G7">
+        <v>4.0289999999999999</v>
+      </c>
+      <c r="H7">
+        <v>2.6840000000000002</v>
+      </c>
+      <c r="I7">
+        <v>3.7730000000000001</v>
+      </c>
+      <c r="J7">
+        <v>4.4470000000000001</v>
+      </c>
+      <c r="K7">
+        <v>4.4809999999999999</v>
+      </c>
+      <c r="L7">
+        <v>4.7530000000000001</v>
+      </c>
+      <c r="M7">
+        <v>4.1269999999999998</v>
+      </c>
+      <c r="N7">
+        <v>0.998</v>
+      </c>
+      <c r="O7">
+        <v>1.742</v>
+      </c>
+      <c r="P7">
+        <v>2.8610000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>2.3210000000000002</v>
+      </c>
+      <c r="C8">
+        <v>3.2530000000000001</v>
+      </c>
+      <c r="D8">
+        <v>5.5469999999999997</v>
+      </c>
+      <c r="E8">
+        <v>5.0940000000000003</v>
+      </c>
+      <c r="F8">
+        <v>4.827</v>
+      </c>
+      <c r="G8">
+        <v>3.7810000000000001</v>
+      </c>
+      <c r="H8">
+        <v>2.5459999999999998</v>
+      </c>
+      <c r="I8">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="J8">
+        <v>-1.0309999999999999</v>
+      </c>
+      <c r="K8">
+        <v>2.383</v>
+      </c>
+      <c r="L8">
+        <v>2.7570000000000001</v>
+      </c>
+      <c r="M8">
+        <v>2.6749999999999998</v>
+      </c>
+      <c r="N8">
+        <v>3.69</v>
+      </c>
+      <c r="O8">
+        <v>4.306</v>
+      </c>
+      <c r="P8">
+        <v>4.4850000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>7.181</v>
+      </c>
+      <c r="C9">
+        <v>8.2650000000000006</v>
+      </c>
+      <c r="D9">
+        <v>13.242000000000001</v>
+      </c>
+      <c r="E9">
+        <v>10.443</v>
+      </c>
+      <c r="F9">
+        <v>7.75</v>
+      </c>
+      <c r="G9">
+        <v>11.224</v>
+      </c>
+      <c r="H9">
+        <v>12.467000000000001</v>
+      </c>
+      <c r="I9">
+        <v>11.904999999999999</v>
+      </c>
+      <c r="J9">
+        <v>7.03</v>
+      </c>
+      <c r="K9">
+        <v>9.8109999999999999</v>
+      </c>
+      <c r="L9">
+        <v>10.353999999999999</v>
+      </c>
+      <c r="M9">
+        <v>6.1760000000000002</v>
+      </c>
+      <c r="N9">
+        <v>6.8470000000000004</v>
+      </c>
+      <c r="O9">
+        <v>9.2059999999999995</v>
+      </c>
+      <c r="P9">
+        <v>9.5709999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>4.6239999999999997</v>
+      </c>
+      <c r="C10">
+        <v>5.5350000000000001</v>
+      </c>
+      <c r="D10">
+        <v>3.1659999999999999</v>
+      </c>
+      <c r="E10">
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="F10">
+        <v>2.5379999999999998</v>
+      </c>
+      <c r="G10">
+        <v>-1.8029999999999999</v>
+      </c>
+      <c r="H10">
+        <v>4.5839999999999996</v>
+      </c>
+      <c r="I10">
+        <v>7.2370000000000001</v>
+      </c>
+      <c r="J10">
+        <v>4.17</v>
+      </c>
+      <c r="K10">
+        <v>3.4630000000000001</v>
+      </c>
+      <c r="L10">
+        <v>3.46</v>
+      </c>
+      <c r="M10">
+        <v>4.1769999999999996</v>
+      </c>
+      <c r="N10">
+        <v>3.673</v>
+      </c>
+      <c r="O10">
+        <v>1.8859999999999999</v>
+      </c>
+      <c r="P10">
+        <v>-0.108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>5.26</v>
+      </c>
+      <c r="C11">
+        <v>3.9590000000000001</v>
+      </c>
+      <c r="D11">
+        <v>3.97</v>
+      </c>
+      <c r="E11">
+        <v>5.51</v>
+      </c>
+      <c r="F11">
+        <v>6.8360000000000003</v>
+      </c>
+      <c r="G11">
+        <v>3.28</v>
+      </c>
+      <c r="H11">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="I11">
+        <v>5.8789999999999996</v>
+      </c>
+      <c r="J11">
+        <v>3.4380000000000002</v>
+      </c>
+      <c r="K11">
+        <v>3.6840000000000002</v>
+      </c>
+      <c r="L11">
+        <v>3.7109999999999999</v>
+      </c>
+      <c r="M11">
+        <v>2.1560000000000001</v>
+      </c>
+      <c r="N11">
+        <v>3.4780000000000002</v>
+      </c>
+      <c r="O11">
+        <v>-3.1880000000000002</v>
+      </c>
+      <c r="P11">
+        <v>2.601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>4.6639999999999997</v>
+      </c>
+      <c r="D12">
+        <v>8.1069999999999993</v>
+      </c>
+      <c r="E12">
+        <v>11.904999999999999</v>
+      </c>
+      <c r="F12">
+        <v>7.1</v>
+      </c>
+      <c r="G12">
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="H12">
+        <v>5.8550000000000004</v>
+      </c>
+      <c r="I12">
+        <v>9.423</v>
+      </c>
+      <c r="J12">
+        <v>3.419</v>
+      </c>
+      <c r="K12">
+        <v>6.5019999999999998</v>
+      </c>
+      <c r="L12">
+        <v>3.762</v>
+      </c>
+      <c r="M12">
+        <v>8.2289999999999992</v>
+      </c>
+      <c r="N12">
+        <v>7.8609999999999998</v>
+      </c>
+      <c r="O12">
+        <v>5.7770000000000001</v>
+      </c>
+      <c r="P12">
+        <v>5.7439999999999998</v>
       </c>
     </row>
   </sheetData>
